--- a/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>3,88</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>99,97%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,35%</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>99,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>50,9%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>54,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>54,35%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>41,19%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 4,98</t>
+          <t>1,05; 5,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 5,61</t>
+          <t>-0,41; 5,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 4,95</t>
+          <t>0,43; 4,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,17</t>
+          <t>-0,52; 4,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,26</t>
+          <t>-2,29; 5,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 222,04</t>
+          <t>0,72; 6,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 169,42</t>
+          <t>1,41; 8,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 119,49</t>
+          <t>21,7; 240,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 90,15</t>
+          <t>-7,72; 149,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,12; 123,01</t>
+          <t>6,55; 132,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 103,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 80,65</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 113,84</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 84,82</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>5,48</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-0,47</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>47,91%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,81%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>23,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>60,61%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-6,67%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>36,82%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 4,43</t>
+          <t>-1,89; 4,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 3,65</t>
+          <t>-3,36; 4,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 4,45</t>
+          <t>-1,35; 4,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,16</t>
+          <t>-1,77; 5,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 4,46</t>
+          <t>0,32; 10,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 191,62</t>
+          <t>-5,18; 4,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,9; 95,23</t>
+          <t>-3,04; 11,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 92,53</t>
+          <t>-32,8; 181,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,63; 101,9</t>
+          <t>-41,56; 104,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-57,7; 93,02</t>
+          <t>-17,93; 94,41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-30,83; 128,01</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 151,27</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-54,74; 110,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-24,06; 137,35</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>4,2</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>95,84%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>95,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>46,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28,27%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39,56%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,07</t>
+          <t>-0,32; 9,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 7,62</t>
+          <t>-3,08; 7,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 6,25</t>
+          <t>-6,42; 6,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 7,9</t>
+          <t>-3,45; 7,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-4,41; 14,71</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-23,38; 424,8</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 552,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-56,0; 133,05</t>
+          <t>-21,26; 416,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-51,51; 246,55</t>
+          <t>-55,81; 433,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-55,36; 117,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-49,63; 236,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-31,17; 228,82</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,95</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>76,06%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>41,45%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>40,49%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,18</t>
+          <t>0,91; 4,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,88</t>
+          <t>-0,47; 3,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,73</t>
+          <t>-0,07; 3,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,28</t>
+          <t>-0,24; 3,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,67</t>
+          <t>0,28; 6,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 156,98</t>
+          <t>0,46; 5,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 94,31</t>
+          <t>1,41; 7,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 75,88</t>
+          <t>18,44; 152,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 67,4</t>
+          <t>-7,99; 95,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 92,57</t>
+          <t>-1,27; 70,81</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 72,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 81,4</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 93,35</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 77,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>99,96%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>50,9%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>54,17%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>33,23%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>54,35%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>41,19%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.980635620555312</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.831675347816214</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.783530432076506</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.967555514756522</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.226424408136462</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.881274392878641</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>4.909301647884032</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9996202309267715</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6132117933277516</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5745924933914769</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.3391688040245803</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1389428293833653</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.5435316892559219</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.4318723021077724</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 5,26</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,41; 5,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 4,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 4,46</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 5,5</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 6,71</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 8,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>21,7; 240,25</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 149,12</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 132,59</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-7,53; 103,93</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 80,65</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>7,23; 113,84</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>8,78; 84,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>1.046997327073094</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.02000844572122146</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0.6060284200613715</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4806487433796838</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.498181208718703</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.7207550572374001</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1.57407104514441</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2170137195136462</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.01185760562584439</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.09086420197879018</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.06596252591551163</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2419321967738715</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.07229403330176395</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.1053024590312126</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.25774079028281</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.93564308763458</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.197226583271495</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.561065527648831</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>5.417059487325952</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>6.707756854297255</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>8.749570602807411</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.402524987417975</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.773040567805906</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.378552400914054</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.074079333107447</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.7525644798630242</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.138353475720873</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.8752346359865399</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,84</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,48</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-0,47</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,97</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>47,86%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>14,2%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>23,77%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>17,24%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>60,61%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>-6,67%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>36,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,89; 4,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; 4,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 4,28</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,77; 5,03</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 10,96</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,18; 4,95</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 11,0</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-32,8; 181,63</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-41,56; 104,61</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-17,93; 94,41</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-30,83; 128,01</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 151,27</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-54,74; 110,55</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-24,06; 137,35</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.80246248099253</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.26836725932088</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.31607199232306</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.806766512209562</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.320797613904615</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.4681818179130728</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>3.85825236510997</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4786498793044888</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.04554098169711504</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.214156300444056</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.1490360877446547</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.6010815421755908</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>-0.06672902205262758</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.3566296124719755</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>95,87%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>46,71%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-1,29%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>28,27%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>39,56%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.885519167519342</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.305861224359588</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.591193640802067</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.894688834266447</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.2589479630937763</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-5.175695939676278</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-3.19234972660624</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3279601454265785</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4696149563357498</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2091858386942803</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.3093977644112862</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.002052900855385724</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.5473889729141258</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.2478624373423775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 9,36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 7,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 6,04</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 7,81</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 14,71</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-21,26; 416,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-55,81; 433,36</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-55,36; 117,25</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-49,63; 236,01</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-31,17; 228,82</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.273032508224067</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.602289186867185</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.15969842118121</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.765169470516895</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.0022953177377</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.953391808605934</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>10.85517229641624</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.816311044504346</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.84637398902558</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.9149714866543001</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.224574628164761</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.400849483784177</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1.10551051738272</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.380427895932434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>2,62</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,25</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,95</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,58</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>76,03%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>33,95%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>31,53%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>27,03%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>35,9%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>41,45%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>40,49%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.983034297331863</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.853531917611615</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4232505121220101</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.677787476779292</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>3.898774329124111</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.9587036637600066</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7989361373500573</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.04944931587156952</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.3117358874482464</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.368094897080771</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 4,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,47; 3,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 3,6</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 3,46</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 6,14</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 5,44</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 7,93</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>18,44; 152,13</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 95,0</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 70,81</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-5,2; 72,46</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 81,4</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 93,35</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>11,0; 77,96</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3230783222223168</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.959535795759717</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.88017859492086</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.236343375389776</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-4.588267289536176</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.2126397087082727</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4684806808839306</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5720650962536447</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.4964587038522744</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.3375349385470882</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.363193139986072</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.748365013398363</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.704151526588034</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.814948481777742</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>14.49015099467627</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>4.163981962841811</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>6.021013525987501</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.093358541811731</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>2.352057268583607</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>2.155361409544667</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>2.615906424208205</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.838165894625625</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.804718755299733</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.495279493012269</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.099239235726222</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.947707322163298</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>4.692145091367673</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.7602912436714144</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.368099941198114</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3102500586288814</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.267223580671439</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.3424956549035263</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.4145432450476931</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.4176716282536834</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.9057816543132273</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3721798900745181</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.07800173760517579</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2814253349603331</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1102667825635502</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.4627617662313646</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>1.568313821539429</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1843845871284025</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.06940773111033093</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.01697193582633296</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.05133951604793</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.008500499105220761</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.05702912919736679</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.1236895162227994</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.077619074495546</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.924621289358315</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.599070315870795</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.347581263969988</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5.87906363187042</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>5.443056581515184</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>8.071085567275203</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.521282896778483</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9871275792895422</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7139905655743635</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.7192230250774695</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.7701187606201237</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.9335180521263418</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.8041855077717839</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
